--- a/3. results/d. Tables/Rationing - worldwide - by country income level (F10).xlsx
+++ b/3. results/d. Tables/Rationing - worldwide - by country income level (F10).xlsx
@@ -850,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="E22">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F22">
         <v>1.56</v>
@@ -870,7 +870,7 @@
         <v>73</v>
       </c>
       <c r="E23">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F23">
         <v>4.75</v>
@@ -887,13 +887,13 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E24">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F24">
-        <v>34.27</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -910,7 +910,7 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F25">
         <v>1.89</v>
@@ -930,10 +930,10 @@
         <v>92</v>
       </c>
       <c r="E26">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F26">
-        <v>5.98</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F27">
         <v>0.59</v>
@@ -970,7 +970,7 @@
         <v>34</v>
       </c>
       <c r="E28">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F28">
         <v>2.21</v>
@@ -987,13 +987,13 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E29">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F29">
-        <v>41.03</v>
+        <v>41.02</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1010,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="E30">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F30">
         <v>0.91</v>
@@ -1030,7 +1030,7 @@
         <v>59</v>
       </c>
       <c r="E31">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F31">
         <v>3.84</v>
